--- a/pred_ohlcv/54_21/2020-01-20 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 SOC ohlcv.xlsx
@@ -8374,7 +8374,7 @@
         <v>933429.3154213465</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1472256.673821346</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>3449428.337721346</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>4858362.253532376</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>4267589.085232377</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>4922610.890998752</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>4838578.596198752</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>5567101.170998751</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>5487523.888098751</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>5464600.556098751</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>4611488.831798751</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>4767989.598166188</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>4660574.068566188</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>4760369.442066188</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>4500660.256866188</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>5176573.356966188</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>5145185.014166188</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>5223423.621966189</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>4986391.099066189</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>5021834.107166189</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>5007004.932466188</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>4971015.432866189</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>4702150.027566189</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>4616623.631066189</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>4796229.09136619</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>4453770.45096619</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>4505654.081566189</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>4458620.267666189</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>4408161.381966189</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>4373960.947266188</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>4436103.678366189</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>4137038.917166189</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>4143354.855366189</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-2277530.915258502</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-2899455.106858502</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-1834046.026758502</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-1720356.257458501</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-1982847.876658502</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-1099169.215958501</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-1014189.389658501</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-1464579.854358501</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-1625642.266858501</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-1657831.760358501</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-1628181.099058501</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-1579600.135758501</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-1622106.722319273</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-1588410.052219273</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-1576947.003219272</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-1522657.178519272</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-1268899.777919272</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-1833376.615219272</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 SOC ohlcv.xlsx
@@ -8374,7 +8374,7 @@
         <v>933429.3154213465</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1472256.673821346</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>3449428.337721346</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>4858362.253532376</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>3965024.448632376</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>4267589.085232377</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>4922610.890998752</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>4838578.596198752</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>5567101.170998751</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>5487523.888098751</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>5464600.556098751</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>4611488.831798751</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>4767989.598166188</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>4942206.509066188</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>4585083.090466188</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>4660574.068566188</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>5176573.356966188</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>5145185.014166188</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>5223423.621966189</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>4986391.099066189</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>5021834.107166189</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>4616623.631066189</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>4796229.09136619</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>4453770.45096619</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>4505654.081566189</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>4458620.267666189</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>4408161.381966189</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>4373960.947266188</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>4436103.678366189</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>4137038.917166189</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>4143354.855366189</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-2277530.915258502</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-2899455.106858502</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-2076034.712158502</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-1834046.026758502</v>
       </c>
       <c r="H616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-1720356.257458501</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-1982847.876658502</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-1837451.832058502</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-1837451.832058502</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-1756752.919358502</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-1099169.215958501</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-1014189.389658501</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-889581.6445585014</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-863843.4330585015</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-1034676.861458501</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-1034676.861458501</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-1099021.783058501</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-1529386.720958501</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-1479610.184358501</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-1499823.345858501</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-1464579.854358501</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-1625642.266858501</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-1657831.760358501</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-1628181.099058501</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-1579600.135758501</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-1516236.198958501</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-1362302.767158502</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-1175943.742758502</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-1588489.272219273</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-1531407.424619273</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-1622106.722319273</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-1588410.052219273</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-1576947.003219272</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-1522657.178519272</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-1268899.777919272</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-1833376.615219272</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
